--- a/IMDB Top 250 Movies NEW.xlsx
+++ b/IMDB Top 250 Movies NEW.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/aeg90_pitt_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMF88\Dropbox\BUSQOM 101 - Fall 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF88F7F-F623-409F-8B9E-0273989896C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE6704BD-35B3-4EDF-9818-B36215936E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1180" windowWidth="28040" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMDB Top 250 Movies NEW" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -908,6 +892,9 @@
     <t>The World Has Never Understood Why the Japanese Prefer Death to Dishonor! This Samurai Picture Provides The Answer!!</t>
   </si>
   <si>
+    <t>Not Available</t>
+  </si>
+  <si>
     <t>Tatsuya Nakadai,Akira Ishihama,Shima Iwashita,Tetsur√¥ Tanba,Masao Mishima,Ichir√¥ Nakatani,Kei Sat√¥,Yoshio Inaba,Hisashi Igawa,T√¥ru Takeuchi,Yoshir√¥ Aoki,Tatsuo Matsumura,Akiji Kobayashi,K√¥ichi Hayashi,Ry√ªtar√¥ Gomi,J√¥ Azumi,Nakajir√¥ Tomita,Shichisabur√¥ Amatsu</t>
   </si>
   <si>
@@ -1419,9 +1406,6 @@
   </si>
   <si>
     <t>The Boat</t>
-  </si>
-  <si>
-    <t>Not Available</t>
   </si>
   <si>
     <t>This is the story of 42 raw recruits caught up in a war they didn't understand, and the Captain who must lead them in their struggle to survive.</t>
@@ -4107,7 +4091,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4948,12 +4932,12 @@
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="10" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4994,7 +4978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5035,7 +5019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5076,7 +5060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5117,7 +5101,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5158,7 +5142,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5199,7 +5183,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5240,7 +5224,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5281,7 +5265,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5322,7 +5306,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5363,7 +5347,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5404,7 +5388,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5445,7 +5429,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5486,7 +5470,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5527,7 +5511,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5568,7 +5552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5609,7 +5593,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5650,7 +5634,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5691,7 +5675,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5732,7 +5716,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5773,7 +5757,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5814,7 +5798,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5855,7 +5839,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5896,7 +5880,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5937,7 +5921,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5978,7 +5962,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6019,7 +6003,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6060,7 +6044,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6101,7 +6085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6142,7 +6126,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6183,7 +6167,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6224,7 +6208,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6265,7 +6249,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6306,7 +6290,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6347,7 +6331,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6388,7 +6372,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6427,7 +6411,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6468,7 +6452,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6509,7 +6493,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6550,7 +6534,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6591,7 +6575,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6632,7 +6616,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6673,7 +6657,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6714,7 +6698,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6755,7 +6739,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6796,7 +6780,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6824,21 +6808,21 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L46" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M46" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C47" s="1">
         <v>2011</v>
@@ -6847,16 +6831,16 @@
         <v>8.5</v>
       </c>
       <c r="E47" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F47" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H47" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I47" s="1">
         <v>9500000</v>
@@ -6865,21 +6849,21 @@
         <v>426588510</v>
       </c>
       <c r="K47" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L47" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M47" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C48" s="1">
         <v>1936</v>
@@ -6894,10 +6878,10 @@
         <v>234</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H48" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I48" s="1">
         <v>1500000</v>
@@ -6906,21 +6890,21 @@
         <v>463618</v>
       </c>
       <c r="K48" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L48" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M48" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C49" s="1">
         <v>1968</v>
@@ -6929,16 +6913,16 @@
         <v>8.5</v>
       </c>
       <c r="E49" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F49" t="s">
         <v>30</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H49" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I49" s="1">
         <v>5000000</v>
@@ -6947,21 +6931,21 @@
         <v>5435024</v>
       </c>
       <c r="K49" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L49" t="s">
         <v>76</v>
       </c>
       <c r="M49" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C50" s="1">
         <v>1954</v>
@@ -6970,16 +6954,16 @@
         <v>8.5</v>
       </c>
       <c r="E50" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F50" t="s">
         <v>101</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H50" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I50" s="1">
         <v>1000000</v>
@@ -6988,21 +6972,21 @@
         <v>37034579</v>
       </c>
       <c r="K50" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L50" t="s">
         <v>218</v>
       </c>
       <c r="M50" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C51" s="1">
         <v>1988</v>
@@ -7020,7 +7004,7 @@
         <v>241</v>
       </c>
       <c r="H51" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I51" s="1">
         <v>5000000</v>
@@ -7029,21 +7013,21 @@
         <v>13019063</v>
       </c>
       <c r="K51" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L51" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M51" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C52" s="1">
         <v>1979</v>
@@ -7052,16 +7036,16 @@
         <v>8.5</v>
       </c>
       <c r="E52" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F52" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H52" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I52" s="1">
         <v>11000000</v>
@@ -7070,21 +7054,21 @@
         <v>106285522</v>
       </c>
       <c r="K52" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L52" t="s">
         <v>244</v>
       </c>
       <c r="M52" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C53" s="1">
         <v>1931</v>
@@ -7099,10 +7083,10 @@
         <v>234</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H53" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I53" s="1">
         <v>1500000</v>
@@ -7111,21 +7095,21 @@
         <v>50419</v>
       </c>
       <c r="K53" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L53" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M53" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C54" s="1">
         <v>1979</v>
@@ -7134,16 +7118,16 @@
         <v>8.5</v>
       </c>
       <c r="E54" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F54" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H54" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I54" s="1">
         <v>31500000</v>
@@ -7152,21 +7136,21 @@
         <v>104880868</v>
       </c>
       <c r="K54" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L54" t="s">
         <v>26</v>
       </c>
       <c r="M54" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C55" s="1">
         <v>2000</v>
@@ -7175,16 +7159,16 @@
         <v>8.4</v>
       </c>
       <c r="E55" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F55" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H55" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I55" s="1">
         <v>9000000</v>
@@ -7193,21 +7177,21 @@
         <v>40047078</v>
       </c>
       <c r="K55" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L55" t="s">
         <v>34</v>
       </c>
       <c r="M55" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C56" s="1">
         <v>2012</v>
@@ -7216,16 +7200,16 @@
         <v>8.4</v>
       </c>
       <c r="E56" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F56" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H56" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I56" s="1">
         <v>100000000</v>
@@ -7234,7 +7218,7 @@
         <v>426074373</v>
       </c>
       <c r="K56" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L56" t="s">
         <v>66</v>
@@ -7243,12 +7227,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C57" s="1">
         <v>1981</v>
@@ -7257,16 +7241,16 @@
         <v>8.4</v>
       </c>
       <c r="E57" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F57" t="s">
         <v>101</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H57" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I57" s="1">
         <v>18000000</v>
@@ -7275,21 +7259,21 @@
         <v>389925971</v>
       </c>
       <c r="K57" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L57" t="s">
         <v>53</v>
       </c>
       <c r="M57" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C58" s="1">
         <v>2008</v>
@@ -7304,10 +7288,10 @@
         <v>234</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H58" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I58" s="1">
         <v>180000000</v>
@@ -7316,21 +7300,21 @@
         <v>521311890</v>
       </c>
       <c r="K58" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L58" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M58" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C59" s="1">
         <v>2006</v>
@@ -7339,7 +7323,7 @@
         <v>8.4</v>
       </c>
       <c r="E59" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F59" t="s">
         <v>15</v>
@@ -7348,7 +7332,7 @@
         <v>190</v>
       </c>
       <c r="H59" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I59" s="1">
         <v>2000000</v>
@@ -7357,21 +7341,21 @@
         <v>77356942</v>
       </c>
       <c r="K59" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L59" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M59" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C60" s="1">
         <v>1950</v>
@@ -7380,16 +7364,16 @@
         <v>8.4</v>
       </c>
       <c r="E60" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F60" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>228</v>
       </c>
       <c r="H60" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I60" s="1">
         <v>1752000</v>
@@ -7398,21 +7382,21 @@
         <v>300073</v>
       </c>
       <c r="K60" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L60" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M60" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C61" s="1">
         <v>1957</v>
@@ -7430,7 +7414,7 @@
         <v>235</v>
       </c>
       <c r="H61" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I61" s="1">
         <v>935000</v>
@@ -7439,21 +7423,21 @@
         <v>5252</v>
       </c>
       <c r="K61" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L61" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M61" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C62" s="1">
         <v>1980</v>
@@ -7462,16 +7446,16 @@
         <v>8.4</v>
       </c>
       <c r="E62" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F62" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H62" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I62" s="1">
         <v>19000000</v>
@@ -7480,21 +7464,21 @@
         <v>47335804</v>
       </c>
       <c r="K62" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L62" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M62" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C63" s="1">
         <v>1940</v>
@@ -7503,7 +7487,7 @@
         <v>8.4</v>
       </c>
       <c r="E63" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F63" t="s">
         <v>234</v>
@@ -7512,7 +7496,7 @@
         <v>202</v>
       </c>
       <c r="H63" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I63" s="1">
         <v>2000000</v>
@@ -7521,21 +7505,21 @@
         <v>970263</v>
       </c>
       <c r="K63" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L63" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M63" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C64" s="1">
         <v>2018</v>
@@ -7550,10 +7534,10 @@
         <v>30</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H64" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I64" s="1">
         <v>321000000</v>
@@ -7562,21 +7546,21 @@
         <v>2052415039</v>
       </c>
       <c r="K64" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L64" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M64" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C65" s="1">
         <v>1957</v>
@@ -7594,7 +7578,7 @@
         <v>174</v>
       </c>
       <c r="H65" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I65" s="1">
         <v>3000000</v>
@@ -7603,21 +7587,21 @@
         <v>7693</v>
       </c>
       <c r="K65" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L65" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M65" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C66" s="1">
         <v>1986</v>
@@ -7635,7 +7619,7 @@
         <v>190</v>
       </c>
       <c r="H66" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I66" s="1">
         <v>18500000</v>
@@ -7644,21 +7628,21 @@
         <v>131060248</v>
       </c>
       <c r="K66" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L66" t="s">
         <v>193</v>
       </c>
       <c r="M66" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C67" s="1">
         <v>2018</v>
@@ -7667,35 +7651,35 @@
         <v>8.4</v>
       </c>
       <c r="E67" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F67" t="s">
         <v>101</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H67" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L67" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M67" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C68" s="1">
         <v>1999</v>
@@ -7710,10 +7694,10 @@
         <v>15</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H68" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I68" s="1">
         <v>15000000</v>
@@ -7722,21 +7706,21 @@
         <v>356296601</v>
       </c>
       <c r="K68" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L68" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M68" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C69" s="1">
         <v>1964</v>
@@ -7745,16 +7729,16 @@
         <v>8.4</v>
       </c>
       <c r="E69" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F69" t="s">
         <v>101</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H69" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I69" s="1">
         <v>1800000</v>
@@ -7763,21 +7747,21 @@
         <v>9523464</v>
       </c>
       <c r="K69" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L69" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M69" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C70" s="1">
         <v>2012</v>
@@ -7792,10 +7776,10 @@
         <v>30</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H70" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I70" s="1">
         <v>250000000</v>
@@ -7804,7 +7788,7 @@
         <v>1081169825</v>
       </c>
       <c r="K70" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L70" t="s">
         <v>34</v>
@@ -7813,12 +7797,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C71" s="1">
         <v>2003</v>
@@ -7833,10 +7817,10 @@
         <v>15</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H71" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I71" s="1">
         <v>3000000</v>
@@ -7845,21 +7829,21 @@
         <v>15421226</v>
       </c>
       <c r="K71" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L71" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M71" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C72" s="1">
         <v>2009</v>
@@ -7868,16 +7852,16 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="E72" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F72" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H72" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I72" s="1">
         <v>70000000</v>
@@ -7886,7 +7870,7 @@
         <v>321457747</v>
       </c>
       <c r="K72" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L72" t="s">
         <v>66</v>
@@ -7895,12 +7879,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C73" s="1">
         <v>1984</v>
@@ -7915,10 +7899,10 @@
         <v>101</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H73" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I73" s="1">
         <v>18000000</v>
@@ -7927,21 +7911,21 @@
         <v>52066791</v>
       </c>
       <c r="K73" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L73" t="s">
         <v>126</v>
       </c>
       <c r="M73" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C74" s="1">
         <v>2017</v>
@@ -7950,16 +7934,16 @@
         <v>8.4</v>
       </c>
       <c r="E74" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F74" t="s">
         <v>101</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H74" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I74" s="1">
         <v>175000000</v>
@@ -7968,21 +7952,21 @@
         <v>814337054</v>
       </c>
       <c r="K74" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L74" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M74" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C75" s="1">
         <v>1995</v>
@@ -7991,16 +7975,16 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="E75" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F75" t="s">
         <v>234</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H75" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I75" s="1">
         <v>30000000</v>
@@ -8009,21 +7993,21 @@
         <v>394436586</v>
       </c>
       <c r="K75" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L75" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M75" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C76" s="1">
         <v>2019</v>
@@ -8038,10 +8022,10 @@
         <v>15</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H76" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I76" s="1">
         <v>55000000</v>
@@ -8050,21 +8034,21 @@
         <v>1074458282</v>
       </c>
       <c r="K76" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L76" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M76" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C77" s="1">
         <v>1995</v>
@@ -8082,7 +8066,7 @@
         <v>69</v>
       </c>
       <c r="H77" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I77" s="1">
         <v>72000000</v>
@@ -8091,21 +8075,21 @@
         <v>213216216</v>
       </c>
       <c r="K77" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L77" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M77" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C78" s="1">
         <v>1981</v>
@@ -8117,10 +8101,10 @@
         <v>162</v>
       </c>
       <c r="F78" t="s">
-        <v>461</v>
+        <v>290</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>461</v>
+        <v>290</v>
       </c>
       <c r="H78" t="s">
         <v>462</v>
@@ -8139,7 +8123,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8174,13 +8158,13 @@
         <v>469</v>
       </c>
       <c r="L79" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M79" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8194,7 +8178,7 @@
         <v>8.4</v>
       </c>
       <c r="E80" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F80" t="s">
         <v>30</v>
@@ -8221,7 +8205,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8262,7 +8246,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8299,7 +8283,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8336,7 +8320,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8377,7 +8361,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8418,7 +8402,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8459,7 +8443,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8473,7 +8457,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="E87" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F87" t="s">
         <v>234</v>
@@ -8500,7 +8484,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -8537,7 +8521,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -8574,7 +8558,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -8615,7 +8599,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8656,7 +8640,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8676,7 +8660,7 @@
         <v>234</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H92" t="s">
         <v>543</v>
@@ -8691,13 +8675,13 @@
         <v>544</v>
       </c>
       <c r="L92" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M92" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8738,7 +8722,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8775,7 +8759,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8795,7 +8779,7 @@
         <v>15</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H95" t="s">
         <v>558</v>
@@ -8812,7 +8796,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8853,7 +8837,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8870,7 +8854,7 @@
         <v>569</v>
       </c>
       <c r="F97" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>548</v>
@@ -8879,7 +8863,7 @@
         <v>570</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>461</v>
+        <v>290</v>
       </c>
       <c r="J97" s="1">
         <v>35566</v>
@@ -8894,7 +8878,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8935,7 +8919,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8976,7 +8960,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -9017,7 +9001,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -9056,7 +9040,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -9076,7 +9060,7 @@
         <v>15</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H102" t="s">
         <v>597</v>
@@ -9097,7 +9081,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -9132,13 +9116,13 @@
         <v>603</v>
       </c>
       <c r="L103" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M103" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9173,13 +9157,13 @@
         <v>609</v>
       </c>
       <c r="L104" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M104" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -9196,7 +9180,7 @@
         <v>612</v>
       </c>
       <c r="F105" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>613</v>
@@ -9214,13 +9198,13 @@
         <v>615</v>
       </c>
       <c r="L105" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M105" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -9255,13 +9239,13 @@
         <v>619</v>
       </c>
       <c r="L106" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M106" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -9302,7 +9286,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -9343,7 +9327,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9363,7 +9347,7 @@
         <v>30</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H109" t="s">
         <v>632</v>
@@ -9380,7 +9364,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9421,7 +9405,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9462,7 +9446,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9503,7 +9487,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9544,7 +9528,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9558,7 +9542,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="E114" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F114" t="s">
         <v>101</v>
@@ -9585,7 +9569,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9626,7 +9610,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9646,7 +9630,7 @@
         <v>136</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H116" t="s">
         <v>669</v>
@@ -9665,7 +9649,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9706,7 +9690,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -9747,7 +9731,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -9788,7 +9772,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -9829,7 +9813,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -9843,7 +9827,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E121" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F121" t="s">
         <v>30</v>
@@ -9870,7 +9854,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -9911,7 +9895,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -9931,7 +9915,7 @@
         <v>101</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H123" t="s">
         <v>705</v>
@@ -9950,7 +9934,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -9985,13 +9969,13 @@
         <v>711</v>
       </c>
       <c r="L124" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M124" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -10032,7 +10016,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -10069,7 +10053,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -10083,7 +10067,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E127" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F127" t="s">
         <v>15</v>
@@ -10110,7 +10094,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -10151,7 +10135,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -10168,7 +10152,7 @@
         <v>736</v>
       </c>
       <c r="F129" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>737</v>
@@ -10186,13 +10170,13 @@
         <v>739</v>
       </c>
       <c r="L129" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M129" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -10209,7 +10193,7 @@
         <v>741</v>
       </c>
       <c r="F130" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>185</v>
@@ -10227,13 +10211,13 @@
         <v>743</v>
       </c>
       <c r="L130" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M130" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -10274,7 +10258,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -10291,7 +10275,7 @@
         <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>678</v>
@@ -10315,7 +10299,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -10356,7 +10340,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -10370,7 +10354,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E134" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F134" t="s">
         <v>30</v>
@@ -10397,7 +10381,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -10438,7 +10422,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -10479,7 +10463,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -10520,7 +10504,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -10561,7 +10545,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -10602,7 +10586,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -10643,7 +10627,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -10657,7 +10641,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E141" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F141" t="s">
         <v>15</v>
@@ -10684,7 +10668,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -10698,7 +10682,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E142" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F142" t="s">
         <v>30</v>
@@ -10725,7 +10709,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -10739,7 +10723,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E143" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F143" t="s">
         <v>15</v>
@@ -10766,7 +10750,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -10807,7 +10791,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -10848,7 +10832,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -10887,7 +10871,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -10904,7 +10888,7 @@
         <v>826</v>
       </c>
       <c r="F147" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>481</v>
@@ -10928,7 +10912,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -10969,7 +10953,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -11010,7 +10994,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -11030,7 +11014,7 @@
         <v>15</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H150" t="s">
         <v>846</v>
@@ -11051,7 +11035,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -11092,7 +11076,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -11133,7 +11117,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -11174,7 +11158,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -11215,7 +11199,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -11229,7 +11213,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E155" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F155" t="s">
         <v>234</v>
@@ -11256,7 +11240,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -11297,7 +11281,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -11311,7 +11295,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E157" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F157" t="s">
         <v>15</v>
@@ -11338,7 +11322,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -11379,7 +11363,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -11420,7 +11404,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -11437,7 +11421,7 @@
         <v>274</v>
       </c>
       <c r="F160" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>897</v>
@@ -11461,7 +11445,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -11502,7 +11486,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -11516,13 +11500,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E162" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F162" t="s">
         <v>101</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H162" t="s">
         <v>907</v>
@@ -11543,7 +11527,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -11563,7 +11547,7 @@
         <v>101</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H163" t="s">
         <v>912</v>
@@ -11584,7 +11568,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -11621,7 +11605,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -11662,7 +11646,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -11682,7 +11666,7 @@
         <v>15</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H166" t="s">
         <v>926</v>
@@ -11703,7 +11687,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -11717,7 +11701,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E167" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F167" t="s">
         <v>101</v>
@@ -11744,7 +11728,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -11785,7 +11769,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -11805,7 +11789,7 @@
         <v>15</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H169" t="s">
         <v>940</v>
@@ -11826,7 +11810,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -11867,7 +11851,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -11887,7 +11871,7 @@
         <v>15</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H171" t="s">
         <v>950</v>
@@ -11908,7 +11892,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -11949,7 +11933,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -11986,7 +11970,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -12023,7 +12007,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -12064,7 +12048,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -12101,7 +12085,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -12121,7 +12105,7 @@
         <v>15</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H177" t="s">
         <v>978</v>
@@ -12142,7 +12126,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -12159,10 +12143,10 @@
         <v>982</v>
       </c>
       <c r="F178" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H178" t="s">
         <v>983</v>
@@ -12177,13 +12161,13 @@
         <v>984</v>
       </c>
       <c r="L178" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M178" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -12224,7 +12208,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -12265,7 +12249,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -12279,7 +12263,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E181" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F181" t="s">
         <v>101</v>
@@ -12302,7 +12286,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -12343,7 +12327,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -12384,7 +12368,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -12425,7 +12409,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -12439,13 +12423,13 @@
         <v>8.1</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F185" t="s">
         <v>15</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H185" t="s">
         <v>1021</v>
@@ -12462,7 +12446,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -12503,7 +12487,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -12542,7 +12526,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -12559,7 +12543,7 @@
         <v>1035</v>
       </c>
       <c r="F188" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>1036</v>
@@ -12583,7 +12567,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -12622,7 +12606,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -12659,7 +12643,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -12700,7 +12684,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -12714,7 +12698,7 @@
         <v>8.1</v>
       </c>
       <c r="E192" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F192" t="s">
         <v>101</v>
@@ -12735,13 +12719,13 @@
         <v>1062</v>
       </c>
       <c r="L192" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M192" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -12776,13 +12760,13 @@
         <v>1066</v>
       </c>
       <c r="L193" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M193" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -12821,7 +12805,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -12862,7 +12846,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -12879,7 +12863,7 @@
         <v>1079</v>
       </c>
       <c r="F196" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>1080</v>
@@ -12899,7 +12883,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -12919,7 +12903,7 @@
         <v>15</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H197" t="s">
         <v>1087</v>
@@ -12936,7 +12920,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -12953,7 +12937,7 @@
         <v>494</v>
       </c>
       <c r="F198" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>642</v>
@@ -12977,7 +12961,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -12997,7 +12981,7 @@
         <v>15</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H199" t="s">
         <v>1096</v>
@@ -13018,7 +13002,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -13059,7 +13043,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -13100,7 +13084,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -13114,13 +13098,13 @@
         <v>8.1</v>
       </c>
       <c r="E202" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F202" t="s">
         <v>101</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H202" t="s">
         <v>1111</v>
@@ -13141,7 +13125,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -13182,7 +13166,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -13196,7 +13180,7 @@
         <v>8.1</v>
       </c>
       <c r="E204" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F204" t="s">
         <v>234</v>
@@ -13223,7 +13207,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -13264,7 +13248,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -13305,7 +13289,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -13325,7 +13309,7 @@
         <v>15</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H207" t="s">
         <v>1135</v>
@@ -13346,7 +13330,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -13383,7 +13367,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -13400,7 +13384,7 @@
         <v>49</v>
       </c>
       <c r="F209" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>673</v>
@@ -13420,7 +13404,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -13461,7 +13445,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -13502,7 +13486,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
@@ -13522,7 +13506,7 @@
         <v>101</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H212" t="s">
         <v>1158</v>
@@ -13543,7 +13527,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
@@ -13563,7 +13547,7 @@
         <v>15</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H213" t="s">
         <v>1163</v>
@@ -13584,7 +13568,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
@@ -13598,7 +13582,7 @@
         <v>8.1</v>
       </c>
       <c r="E214" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F214" t="s">
         <v>234</v>
@@ -13625,7 +13609,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
@@ -13666,7 +13650,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
@@ -13707,7 +13691,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
@@ -13748,7 +13732,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
@@ -13789,7 +13773,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
@@ -13830,7 +13814,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
@@ -13871,7 +13855,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
@@ -13912,7 +13896,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
@@ -13949,7 +13933,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
@@ -13990,7 +13974,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
@@ -14029,7 +14013,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
@@ -14070,7 +14054,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
@@ -14111,7 +14095,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
@@ -14131,7 +14115,7 @@
         <v>15</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H227" t="s">
         <v>1230</v>
@@ -14152,7 +14136,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
@@ -14166,13 +14150,13 @@
         <v>8</v>
       </c>
       <c r="E228" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F228" t="s">
         <v>101</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H228" t="s">
         <v>1235</v>
@@ -14193,7 +14177,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
@@ -14210,7 +14194,7 @@
         <v>1239</v>
       </c>
       <c r="F229" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>548</v>
@@ -14230,7 +14214,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
@@ -14250,7 +14234,7 @@
         <v>136</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H230" t="s">
         <v>1245</v>
@@ -14267,7 +14251,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
@@ -14308,7 +14292,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
@@ -14349,7 +14333,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
@@ -14386,7 +14370,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
@@ -14403,7 +14387,7 @@
         <v>14</v>
       </c>
       <c r="F234" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>642</v>
@@ -14427,7 +14411,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
@@ -14447,7 +14431,7 @@
         <v>1270</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H235" t="s">
         <v>1271</v>
@@ -14464,7 +14448,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
@@ -14484,7 +14468,7 @@
         <v>136</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H236" t="s">
         <v>1276</v>
@@ -14501,7 +14485,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
@@ -14542,7 +14526,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
@@ -14583,7 +14567,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
@@ -14624,7 +14608,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
@@ -14651,19 +14635,19 @@
       </c>
       <c r="I240" s="1"/>
       <c r="J240" s="1" t="s">
-        <v>461</v>
+        <v>290</v>
       </c>
       <c r="K240" t="s">
         <v>1298</v>
       </c>
       <c r="L240" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M240" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
@@ -14700,7 +14684,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
@@ -14741,7 +14725,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
@@ -14758,10 +14742,10 @@
         <v>596</v>
       </c>
       <c r="F243" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H243" t="s">
         <v>1311</v>
@@ -14782,7 +14766,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
@@ -14819,7 +14803,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
@@ -14860,7 +14844,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
@@ -14874,7 +14858,7 @@
         <v>8.1</v>
       </c>
       <c r="E246" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F246" t="s">
         <v>101</v>
@@ -14901,7 +14885,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
@@ -14921,7 +14905,7 @@
         <v>30</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H247" t="s">
         <v>1330</v>
@@ -14942,7 +14926,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
@@ -14983,7 +14967,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
@@ -14997,7 +14981,7 @@
         <v>8</v>
       </c>
       <c r="E249" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F249" t="s">
         <v>234</v>
@@ -15020,7 +15004,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
@@ -15061,7 +15045,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
